--- a/output8.xlsx
+++ b/output8.xlsx
@@ -180,16 +180,16 @@
       <c r="B2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="C2" t="n" s="2">
         <v>9.0</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
+      <c r="D2" t="n" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E2" t="n" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F2" t="n" s="2">
         <v>5.0</v>
       </c>
       <c r="G2" s="2">
@@ -206,16 +206,16 @@
       <c r="B3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C3" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
+      <c r="C3" t="n" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="D3" t="n" s="2">
         <v>9.0</v>
       </c>
-      <c r="E3" t="n" s="0">
+      <c r="E3" t="n" s="2">
         <v>6.0</v>
       </c>
-      <c r="F3" t="n" s="0">
+      <c r="F3" t="n" s="2">
         <v>7.0</v>
       </c>
       <c r="G3" s="2">
@@ -232,16 +232,16 @@
       <c r="B4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="F4" t="n" s="0">
+      <c r="C4" t="n" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="D4" t="n" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E4" t="n" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F4" t="n" s="2">
         <v>6.0</v>
       </c>
       <c r="G4" s="2">
@@ -258,16 +258,16 @@
       <c r="B5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C5" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="D5" t="n" s="0">
+      <c r="C5" t="n" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="D5" t="n" s="2">
         <v>6.0</v>
       </c>
-      <c r="E5" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="F5" t="n" s="0">
+      <c r="E5" t="n" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F5" t="n" s="2">
         <v>9.0</v>
       </c>
       <c r="G5" s="2">
